--- a/TestData/Register Test Data.xlsx
+++ b/TestData/Register Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAREER\Pytest Practice\CredKart 2025-26\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3ABF8-D282-42BD-93C6-98A97EEF639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C8BEBE-34CB-45A3-9C01-B0F83C6284C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>RegisterName</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Pooja</t>
   </si>
   <si>
-    <t>Pooja@20gmail.com</t>
-  </si>
-  <si>
     <t>Pooja@123</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Pooja@21gmail.com</t>
-  </si>
-  <si>
     <t>Puja</t>
   </si>
   <si>
@@ -121,6 +115,21 @@
   </si>
   <si>
     <t>cat@123</t>
+  </si>
+  <si>
+    <t>Pooja@22gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja@23gmail.com</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Pooja@25gmail.com</t>
+  </si>
+  <si>
+    <t>^&amp;^%$^^</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -486,16 +495,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -503,16 +512,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -520,191 +529,220 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -712,42 +750,45 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5AD76AE5-7316-4725-9343-29A0A2FBE2A7}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{A0F50AC9-2BC9-401C-ADE1-91ED752375EA}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{8F460A66-1EA4-4183-845A-C4440E3906B8}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{43C373FC-10F6-41E2-B735-02547640DB8E}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{630D9EF0-D120-4B70-B827-964A7A3D4775}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{91FE6C82-37F4-4146-AF41-B144EFF033A3}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{251C8AF2-89CE-4042-8BB0-FF5E3AF0DC86}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{2A81F186-0FAE-42BB-9FDD-4CA11710A178}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{C05BE12A-2CFD-45E7-85F6-EE584438D29A}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{8E089415-3C7A-4D84-A6F2-6AB2422B1A65}"/>
-    <hyperlink ref="C5" r:id="rId11" xr:uid="{1B8FD7F0-1F2C-41BD-9C6F-C752771D8B82}"/>
-    <hyperlink ref="D5" r:id="rId12" xr:uid="{27A2C055-70C7-4221-A5A1-7E2ED418D29A}"/>
-    <hyperlink ref="B6" r:id="rId13" xr:uid="{AEC2563D-927C-4736-992D-3785313862C3}"/>
-    <hyperlink ref="C6" r:id="rId14" xr:uid="{7FFF68F1-5749-4B8F-85C4-01222F12F8FA}"/>
-    <hyperlink ref="D6" r:id="rId15" xr:uid="{0849B0EF-8206-4531-8CDC-DF0EB47DD93F}"/>
-    <hyperlink ref="B7" r:id="rId16" xr:uid="{CE96E70F-92D3-4990-BE4C-3687B7E6340F}"/>
-    <hyperlink ref="C7" r:id="rId17" xr:uid="{F6D274FF-708F-423F-A10C-FB1C5D643ED8}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{396FEE63-CD3A-4A9B-8EA5-BE0A7DA38F46}"/>
-    <hyperlink ref="B8" r:id="rId19" xr:uid="{E020C565-80C3-4E40-913A-85C71F220A99}"/>
-    <hyperlink ref="C8" r:id="rId20" xr:uid="{0338E532-7547-4439-BFD2-BCEF38DF75C3}"/>
-    <hyperlink ref="D8" r:id="rId21" xr:uid="{0BE0D8EC-FB14-47F5-9163-26E1015D33FC}"/>
-    <hyperlink ref="C9" r:id="rId22" xr:uid="{C6D1FE4B-DA0F-4F24-A01C-06466A288FBE}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{54D08C45-7CC6-428B-AC33-72CFAC8E4E37}"/>
-    <hyperlink ref="B10" r:id="rId24" xr:uid="{021F89FE-7EC8-4FAB-8CF4-EC4C75686421}"/>
-    <hyperlink ref="C10" r:id="rId25" xr:uid="{ABEBB4EB-9BE2-40CE-BF1B-61AF875CF6DF}"/>
-    <hyperlink ref="B11" r:id="rId26" xr:uid="{9C472C5E-4B20-4E16-A8EE-D80B757440F7}"/>
-    <hyperlink ref="D11" r:id="rId27" xr:uid="{083D744C-D2F8-4E7B-BB8D-BE0D3DA3337E}"/>
-    <hyperlink ref="B12" r:id="rId28" xr:uid="{7998B7C4-5EC9-44D5-BF82-066C2C12D792}"/>
-    <hyperlink ref="C12" r:id="rId29" xr:uid="{BC535213-4FBA-45CA-9F6D-AE99CE851F26}"/>
-    <hyperlink ref="D12" r:id="rId30" xr:uid="{D6303310-9468-4BA5-917A-5D96AE4DD31D}"/>
-    <hyperlink ref="B13" r:id="rId31" xr:uid="{6DBAD2B2-5A78-4383-B126-11BFA2EB73F7}"/>
-    <hyperlink ref="C13" r:id="rId32" xr:uid="{4EE4FA8F-CCC6-4931-8F70-A68DBC9220B2}"/>
-    <hyperlink ref="D13" r:id="rId33" xr:uid="{6176E101-2C7E-46F6-95A3-214967BDD8FE}"/>
-    <hyperlink ref="B14" r:id="rId34" xr:uid="{19E22425-95DB-4A99-A146-142C6BB4A91F}"/>
-    <hyperlink ref="C14" r:id="rId35" xr:uid="{1945C55F-3565-4095-BBC6-E7118079DDDE}"/>
-    <hyperlink ref="D14" r:id="rId36" xr:uid="{944F9636-C8ED-494B-97FF-2206DEA80AB1}"/>
-    <hyperlink ref="B15" r:id="rId37" xr:uid="{7CB51F97-60BB-446D-B2C6-FDDC0C3DC608}"/>
-    <hyperlink ref="C15" r:id="rId38" xr:uid="{1DB6A66C-DE77-4F09-8FE4-E1270AFC0198}"/>
-    <hyperlink ref="D15" r:id="rId39" xr:uid="{3C9CCDBA-C882-4755-B652-2B9EA3B71DDB}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{630D9EF0-D120-4B70-B827-964A7A3D4775}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{91FE6C82-37F4-4146-AF41-B144EFF033A3}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{251C8AF2-89CE-4042-8BB0-FF5E3AF0DC86}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{2A81F186-0FAE-42BB-9FDD-4CA11710A178}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{C05BE12A-2CFD-45E7-85F6-EE584438D29A}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{1B8FD7F0-1F2C-41BD-9C6F-C752771D8B82}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{27A2C055-70C7-4221-A5A1-7E2ED418D29A}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{AEC2563D-927C-4736-992D-3785313862C3}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{7FFF68F1-5749-4B8F-85C4-01222F12F8FA}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{0849B0EF-8206-4531-8CDC-DF0EB47DD93F}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{CE96E70F-92D3-4990-BE4C-3687B7E6340F}"/>
+    <hyperlink ref="C7" r:id="rId15" xr:uid="{F6D274FF-708F-423F-A10C-FB1C5D643ED8}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{396FEE63-CD3A-4A9B-8EA5-BE0A7DA38F46}"/>
+    <hyperlink ref="B8" r:id="rId17" xr:uid="{E020C565-80C3-4E40-913A-85C71F220A99}"/>
+    <hyperlink ref="C8" r:id="rId18" xr:uid="{0338E532-7547-4439-BFD2-BCEF38DF75C3}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{0BE0D8EC-FB14-47F5-9163-26E1015D33FC}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{C6D1FE4B-DA0F-4F24-A01C-06466A288FBE}"/>
+    <hyperlink ref="D9" r:id="rId21" xr:uid="{54D08C45-7CC6-428B-AC33-72CFAC8E4E37}"/>
+    <hyperlink ref="B10" r:id="rId22" xr:uid="{021F89FE-7EC8-4FAB-8CF4-EC4C75686421}"/>
+    <hyperlink ref="C10" r:id="rId23" xr:uid="{ABEBB4EB-9BE2-40CE-BF1B-61AF875CF6DF}"/>
+    <hyperlink ref="B11" r:id="rId24" xr:uid="{9C472C5E-4B20-4E16-A8EE-D80B757440F7}"/>
+    <hyperlink ref="D11" r:id="rId25" xr:uid="{083D744C-D2F8-4E7B-BB8D-BE0D3DA3337E}"/>
+    <hyperlink ref="B12" r:id="rId26" xr:uid="{7998B7C4-5EC9-44D5-BF82-066C2C12D792}"/>
+    <hyperlink ref="C12" r:id="rId27" xr:uid="{BC535213-4FBA-45CA-9F6D-AE99CE851F26}"/>
+    <hyperlink ref="D12" r:id="rId28" xr:uid="{D6303310-9468-4BA5-917A-5D96AE4DD31D}"/>
+    <hyperlink ref="B13" r:id="rId29" xr:uid="{6DBAD2B2-5A78-4383-B126-11BFA2EB73F7}"/>
+    <hyperlink ref="C13" r:id="rId30" xr:uid="{4EE4FA8F-CCC6-4931-8F70-A68DBC9220B2}"/>
+    <hyperlink ref="D13" r:id="rId31" xr:uid="{6176E101-2C7E-46F6-95A3-214967BDD8FE}"/>
+    <hyperlink ref="B14" r:id="rId32" xr:uid="{19E22425-95DB-4A99-A146-142C6BB4A91F}"/>
+    <hyperlink ref="C14" r:id="rId33" xr:uid="{1945C55F-3565-4095-BBC6-E7118079DDDE}"/>
+    <hyperlink ref="D14" r:id="rId34" xr:uid="{944F9636-C8ED-494B-97FF-2206DEA80AB1}"/>
+    <hyperlink ref="B15" r:id="rId35" xr:uid="{7CB51F97-60BB-446D-B2C6-FDDC0C3DC608}"/>
+    <hyperlink ref="C15" r:id="rId36" xr:uid="{1DB6A66C-DE77-4F09-8FE4-E1270AFC0198}"/>
+    <hyperlink ref="D15" r:id="rId37" xr:uid="{3C9CCDBA-C882-4755-B652-2B9EA3B71DDB}"/>
+    <hyperlink ref="B5" r:id="rId38" xr:uid="{68BB3A41-C871-4E8D-9E19-4F4319B95781}"/>
+    <hyperlink ref="B3" r:id="rId39" xr:uid="{8900A6CB-BC00-4A43-B105-D668EB145FAE}"/>
+    <hyperlink ref="B16" r:id="rId40" xr:uid="{C06489DD-48D7-4AE3-B6B7-E21F87F21567}"/>
+    <hyperlink ref="C16" r:id="rId41" xr:uid="{04FA61CE-8F62-4020-B585-AC6DD3FFD7CD}"/>
+    <hyperlink ref="D16" r:id="rId42" xr:uid="{AA93CF6E-2FF8-4CED-81BA-3A76B37BE3B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Register Test Data.xlsx
+++ b/TestData/Register Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAREER\Pytest Practice\CredKart 2025-26\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C8BEBE-34CB-45A3-9C01-B0F83C6284C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07B239-A71A-4307-8E38-83BFDC10BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,9 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,7 +478,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,19 +746,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/Register Test Data.xlsx
+++ b/TestData/Register Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAREER\Pytest Practice\CredKart 2025-26\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC07B239-A71A-4307-8E38-83BFDC10BA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CB8AF-DCB5-4AEC-A0F4-8BE399E853F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>RegisterName</t>
   </si>
@@ -87,9 +87,6 @@
     <t>lotus</t>
   </si>
   <si>
-    <t>lotus20@gmail.com</t>
-  </si>
-  <si>
     <t>lotus@123</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Rose</t>
   </si>
   <si>
-    <t>ROSE20@GMAIL.COM</t>
-  </si>
-  <si>
     <t>Rose@123</t>
   </si>
   <si>
@@ -117,19 +111,28 @@
     <t>cat@123</t>
   </si>
   <si>
-    <t>Pooja@22gmail.com</t>
-  </si>
-  <si>
-    <t>Pooja@23gmail.com</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
-    <t>Pooja@25gmail.com</t>
-  </si>
-  <si>
     <t>^&amp;^%$^^</t>
+  </si>
+  <si>
+    <t>Pooja@31gmail.com</t>
+  </si>
+  <si>
+    <t>lotus30@gmail.com</t>
+  </si>
+  <si>
+    <t>ROSE30@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>Pooja@35gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja@32gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja@33gmail.com</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -529,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -546,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -631,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -654,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -668,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -682,13 +685,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -696,16 +699,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -713,16 +716,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -730,16 +733,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -747,7 +750,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -792,21 +795,22 @@
     <hyperlink ref="B12" r:id="rId26" xr:uid="{7998B7C4-5EC9-44D5-BF82-066C2C12D792}"/>
     <hyperlink ref="C12" r:id="rId27" xr:uid="{BC535213-4FBA-45CA-9F6D-AE99CE851F26}"/>
     <hyperlink ref="D12" r:id="rId28" xr:uid="{D6303310-9468-4BA5-917A-5D96AE4DD31D}"/>
-    <hyperlink ref="B13" r:id="rId29" xr:uid="{6DBAD2B2-5A78-4383-B126-11BFA2EB73F7}"/>
-    <hyperlink ref="C13" r:id="rId30" xr:uid="{4EE4FA8F-CCC6-4931-8F70-A68DBC9220B2}"/>
-    <hyperlink ref="D13" r:id="rId31" xr:uid="{6176E101-2C7E-46F6-95A3-214967BDD8FE}"/>
-    <hyperlink ref="B14" r:id="rId32" xr:uid="{19E22425-95DB-4A99-A146-142C6BB4A91F}"/>
-    <hyperlink ref="C14" r:id="rId33" xr:uid="{1945C55F-3565-4095-BBC6-E7118079DDDE}"/>
-    <hyperlink ref="D14" r:id="rId34" xr:uid="{944F9636-C8ED-494B-97FF-2206DEA80AB1}"/>
-    <hyperlink ref="B15" r:id="rId35" xr:uid="{7CB51F97-60BB-446D-B2C6-FDDC0C3DC608}"/>
-    <hyperlink ref="C15" r:id="rId36" xr:uid="{1DB6A66C-DE77-4F09-8FE4-E1270AFC0198}"/>
-    <hyperlink ref="D15" r:id="rId37" xr:uid="{3C9CCDBA-C882-4755-B652-2B9EA3B71DDB}"/>
-    <hyperlink ref="B5" r:id="rId38" xr:uid="{68BB3A41-C871-4E8D-9E19-4F4319B95781}"/>
-    <hyperlink ref="B3" r:id="rId39" xr:uid="{8900A6CB-BC00-4A43-B105-D668EB145FAE}"/>
-    <hyperlink ref="B16" r:id="rId40" xr:uid="{C06489DD-48D7-4AE3-B6B7-E21F87F21567}"/>
-    <hyperlink ref="C16" r:id="rId41" xr:uid="{04FA61CE-8F62-4020-B585-AC6DD3FFD7CD}"/>
-    <hyperlink ref="D16" r:id="rId42" xr:uid="{AA93CF6E-2FF8-4CED-81BA-3A76B37BE3B1}"/>
+    <hyperlink ref="C13" r:id="rId29" xr:uid="{4EE4FA8F-CCC6-4931-8F70-A68DBC9220B2}"/>
+    <hyperlink ref="D13" r:id="rId30" xr:uid="{6176E101-2C7E-46F6-95A3-214967BDD8FE}"/>
+    <hyperlink ref="B14" r:id="rId31" xr:uid="{19E22425-95DB-4A99-A146-142C6BB4A91F}"/>
+    <hyperlink ref="C14" r:id="rId32" xr:uid="{1945C55F-3565-4095-BBC6-E7118079DDDE}"/>
+    <hyperlink ref="D14" r:id="rId33" xr:uid="{944F9636-C8ED-494B-97FF-2206DEA80AB1}"/>
+    <hyperlink ref="B15" r:id="rId34" xr:uid="{7CB51F97-60BB-446D-B2C6-FDDC0C3DC608}"/>
+    <hyperlink ref="C15" r:id="rId35" xr:uid="{1DB6A66C-DE77-4F09-8FE4-E1270AFC0198}"/>
+    <hyperlink ref="D15" r:id="rId36" xr:uid="{3C9CCDBA-C882-4755-B652-2B9EA3B71DDB}"/>
+    <hyperlink ref="B16" r:id="rId37" xr:uid="{C06489DD-48D7-4AE3-B6B7-E21F87F21567}"/>
+    <hyperlink ref="C16" r:id="rId38" xr:uid="{04FA61CE-8F62-4020-B585-AC6DD3FFD7CD}"/>
+    <hyperlink ref="D16" r:id="rId39" xr:uid="{AA93CF6E-2FF8-4CED-81BA-3A76B37BE3B1}"/>
+    <hyperlink ref="B5" r:id="rId40" xr:uid="{02AF2832-AABD-4C24-A0DA-415F92627A77}"/>
+    <hyperlink ref="B13" r:id="rId41" xr:uid="{D5542236-7B7E-483F-B2F8-745442327535}"/>
+    <hyperlink ref="B3" r:id="rId42" xr:uid="{AD83F40E-A405-4B5B-A07E-EB9370D04EDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/TestData/Register Test Data.xlsx
+++ b/TestData/Register Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAREER\Pytest Practice\CredKart 2025-26\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CB8AF-DCB5-4AEC-A0F4-8BE399E853F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E357D2BF-6424-4319-8234-403F74DC3AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Mayuri@1234</t>
   </si>
   <si>
-    <t>Mayuri@21@gmail.com</t>
-  </si>
-  <si>
     <t>Sakshi</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Cat</t>
   </si>
   <si>
-    <t>cat@gmail.com</t>
-  </si>
-  <si>
     <t>CAT@123</t>
   </si>
   <si>
@@ -117,22 +111,28 @@
     <t>^&amp;^%$^^</t>
   </si>
   <si>
-    <t>Pooja@31gmail.com</t>
-  </si>
-  <si>
-    <t>lotus30@gmail.com</t>
-  </si>
-  <si>
-    <t>ROSE30@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>Pooja@35gmail.com</t>
-  </si>
-  <si>
-    <t>Pooja@32gmail.com</t>
-  </si>
-  <si>
-    <t>Pooja@33gmail.com</t>
+    <t>Pooja@40gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja@41gmail.com</t>
+  </si>
+  <si>
+    <t>Mayuri@40@gmail.com</t>
+  </si>
+  <si>
+    <t>lotus40@gmail.com</t>
+  </si>
+  <si>
+    <t>lotus41@gmail.com</t>
+  </si>
+  <si>
+    <t>ROSE41@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>cat40@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja41@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -532,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -566,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -614,13 +614,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -631,16 +631,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -648,16 +648,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -665,16 +665,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -682,16 +682,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -699,16 +699,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -716,16 +716,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -733,16 +733,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -806,9 +806,9 @@
     <hyperlink ref="B16" r:id="rId37" xr:uid="{C06489DD-48D7-4AE3-B6B7-E21F87F21567}"/>
     <hyperlink ref="C16" r:id="rId38" xr:uid="{04FA61CE-8F62-4020-B585-AC6DD3FFD7CD}"/>
     <hyperlink ref="D16" r:id="rId39" xr:uid="{AA93CF6E-2FF8-4CED-81BA-3A76B37BE3B1}"/>
-    <hyperlink ref="B5" r:id="rId40" xr:uid="{02AF2832-AABD-4C24-A0DA-415F92627A77}"/>
-    <hyperlink ref="B13" r:id="rId41" xr:uid="{D5542236-7B7E-483F-B2F8-745442327535}"/>
-    <hyperlink ref="B3" r:id="rId42" xr:uid="{AD83F40E-A405-4B5B-A07E-EB9370D04EDB}"/>
+    <hyperlink ref="B3" r:id="rId40" xr:uid="{A23EF144-39EE-416F-A062-3B47DDB1B5A5}"/>
+    <hyperlink ref="B5" r:id="rId41" xr:uid="{C3B815CD-1749-4940-8C59-BD6C092CF7A8}"/>
+    <hyperlink ref="B13" r:id="rId42" xr:uid="{3A9750CA-BBEE-4D35-8521-0529AC11C316}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId43"/>
